--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_DeepAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_DeepAR.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>88.6020265506878</v>
+        <v>69.95072642790045</v>
       </c>
       <c r="C2">
-        <v>73.79676439746761</v>
+        <v>76.85815826018292</v>
       </c>
       <c r="D2">
-        <v>81.52770252890375</v>
+        <v>69.28832658452248</v>
       </c>
       <c r="E2">
-        <v>79.57128485056305</v>
+        <v>83.236934797983</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>99.58468534686416</v>
+        <v>97.35782852822994</v>
       </c>
       <c r="C3">
-        <v>99.46107850623075</v>
+        <v>96.42719266622905</v>
       </c>
       <c r="D3">
-        <v>99.78571824241024</v>
+        <v>97.28406050719582</v>
       </c>
       <c r="E3">
-        <v>99.65533243201234</v>
+        <v>97.09517587248354</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.30639059676338</v>
+        <v>99.48166329888224</v>
       </c>
       <c r="C4">
-        <v>99.21270127640609</v>
+        <v>99.3411419777306</v>
       </c>
       <c r="D4">
-        <v>99.24428489594821</v>
+        <v>99.40534650347828</v>
       </c>
       <c r="E4">
-        <v>99.24285069589662</v>
+        <v>99.43709878099789</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.64145173041587</v>
+        <v>98.87575810940083</v>
       </c>
       <c r="C5">
-        <v>98.66918237823219</v>
+        <v>98.93598966755872</v>
       </c>
       <c r="D5">
-        <v>98.72141851366318</v>
+        <v>98.80888079405626</v>
       </c>
       <c r="E5">
-        <v>98.61051789143032</v>
+        <v>98.83680986153772</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.25967150279202</v>
+        <v>98.46062414827618</v>
       </c>
       <c r="C6">
-        <v>98.01836231387874</v>
+        <v>98.21069741918284</v>
       </c>
       <c r="D6">
-        <v>98.16819579642538</v>
+        <v>98.35153449997112</v>
       </c>
       <c r="E6">
-        <v>98.12618347172648</v>
+        <v>98.28375928631742</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.25390004923983</v>
+        <v>97.32911851896667</v>
       </c>
       <c r="C7">
-        <v>97.20383485741124</v>
+        <v>97.21617910747689</v>
       </c>
       <c r="D7">
-        <v>97.15867382775281</v>
+        <v>97.3672489486587</v>
       </c>
       <c r="E7">
-        <v>97.09943330529407</v>
+        <v>97.35479812538314</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>95.80013386792062</v>
+        <v>95.97488365675812</v>
       </c>
       <c r="C8">
-        <v>95.80596464509564</v>
+        <v>95.93806015431944</v>
       </c>
       <c r="D8">
-        <v>95.83406050348644</v>
+        <v>95.89558257907818</v>
       </c>
       <c r="E8">
-        <v>95.55407371885128</v>
+        <v>95.84201227139823</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_DeepAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_DeepAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.32911851896667</v>
+        <v>97.7366668631464</v>
       </c>
       <c r="C7">
-        <v>97.21617910747689</v>
+        <v>97.79014211137539</v>
       </c>
       <c r="D7">
-        <v>97.3672489486587</v>
+        <v>97.83167731153777</v>
       </c>
       <c r="E7">
-        <v>97.35479812538314</v>
+        <v>97.86737438442233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.32911851896667</v>
+      </c>
+      <c r="C8">
+        <v>97.21617910747689</v>
+      </c>
+      <c r="D8">
+        <v>97.3672489486587</v>
+      </c>
+      <c r="E8">
+        <v>97.35479812538314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>95.97488365675812</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>95.93806015431944</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>95.89558257907818</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>95.84201227139823</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_DeepAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_DeepAR.xlsx
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.7366668631464</v>
+        <v>97.81044791763058</v>
       </c>
       <c r="C7">
-        <v>97.79014211137539</v>
+        <v>97.83095069353061</v>
       </c>
       <c r="D7">
-        <v>97.83167731153777</v>
+        <v>97.8086549863321</v>
       </c>
       <c r="E7">
-        <v>97.86737438442233</v>
+        <v>97.83385868602366</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.32911851896667</v>
+        <v>97.40134127420878</v>
       </c>
       <c r="C8">
-        <v>97.21617910747689</v>
+        <v>97.22221848585441</v>
       </c>
       <c r="D8">
-        <v>97.3672489486587</v>
+        <v>97.31014111981189</v>
       </c>
       <c r="E8">
-        <v>97.35479812538314</v>
+        <v>97.28598360610086</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>95.97488365675812</v>
+        <v>95.9465541823639</v>
       </c>
       <c r="C9">
-        <v>95.93806015431944</v>
+        <v>95.96405177831045</v>
       </c>
       <c r="D9">
-        <v>95.89558257907818</v>
+        <v>95.93426442441375</v>
       </c>
       <c r="E9">
-        <v>95.84201227139823</v>
+        <v>96.03245963294147</v>
       </c>
     </row>
   </sheetData>
